--- a/Table 1.xlsx
+++ b/Table 1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>SVL</t>
   </si>
@@ -36,12 +36,6 @@
 44.1−53.7</t>
   </si>
   <si>
-    <t>0.07972 (t-test)</t>
-  </si>
-  <si>
-    <t>0.03663 * (t-test)</t>
-  </si>
-  <si>
     <t>HL</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
 10.1−12.9</t>
   </si>
   <si>
-    <t xml:space="preserve">0.036679 * </t>
-  </si>
-  <si>
     <t>HW</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
 13.0−17.4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008024 ** </t>
-  </si>
-  <si>
     <t>SNL</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
 4.3−5.6</t>
   </si>
   <si>
-    <t>0.00999 **</t>
-  </si>
-  <si>
     <t>ED</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
 3.1−4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00192 ** </t>
-  </si>
-  <si>
     <t>IOD</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
 2.4−3.6</t>
   </si>
   <si>
-    <t xml:space="preserve">0.001979 ** </t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
 13.8−19.3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.02943 * </t>
-  </si>
-  <si>
     <t>19.1 ± 0.4
 18.6−19.6</t>
   </si>
@@ -177,9 +153,6 @@
 14.8−18.3</t>
   </si>
   <si>
-    <t>0.002527 **</t>
-  </si>
-  <si>
     <t>Fin3DW</t>
   </si>
   <si>
@@ -195,9 +168,6 @@
 2.6−3.6</t>
   </si>
   <si>
-    <t>0.000633 ***</t>
-  </si>
-  <si>
     <t>MTTL</t>
   </si>
   <si>
@@ -211,9 +181,6 @@
   <si>
     <t>2.5 ± 0.2
 2.1−2.9</t>
-  </si>
-  <si>
-    <t>0.0385 *</t>
   </si>
   <si>
     <t>PM
@@ -334,15 +301,54 @@
   <si>
     <t>TBL</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.034118 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006912 ** </t>
+  </si>
+  <si>
+    <t>0.0179 *</t>
+  </si>
+  <si>
+    <t>0.003094 **</t>
+  </si>
+  <si>
+    <t>0.0359 *</t>
+  </si>
+  <si>
+    <t>0.00380 **</t>
+  </si>
+  <si>
+    <t>0.002572 **</t>
+  </si>
+  <si>
+    <t>0.0429 *</t>
+  </si>
+  <si>
+    <t>0.0237 * (t-test)</t>
+  </si>
+  <si>
+    <t>0.000911 *** (t-test)</t>
+  </si>
+  <si>
+    <t>0.000965 ***</t>
+  </si>
+  <si>
+    <t>0.000136 ***</t>
+  </si>
+  <si>
+    <t>0.000437 ***</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +368,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -402,6 +415,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,23 +748,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -757,39 +773,39 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="2" spans="1:7" ht="34.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.799999999999997" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="31.2">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,211 +818,211 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.2">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.2">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4">
+        <v>0.27932000000000001</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.2">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="4">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.40589999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.26701999999999998</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.2">
-      <c r="A9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.65076999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.2">
-      <c r="A10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2">
-      <c r="A11" s="3" t="s">
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.2">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.2">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1030,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Table 1.xlsx
+++ b/Table 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="500"/>
+    <workbookView xWindow="17360" yWindow="0" windowWidth="19720" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>SVL</t>
   </si>
@@ -269,10 +269,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">x̅ ± Std Error
-Min − Max </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -302,9 +298,6 @@
     <t>TBL</t>
   </si>
   <si>
-    <t xml:space="preserve">0.034118 *  </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.006912 ** </t>
   </si>
   <si>
@@ -326,12 +319,6 @@
     <t>0.0429 *</t>
   </si>
   <si>
-    <t>0.0237 * (t-test)</t>
-  </si>
-  <si>
-    <t>0.000911 *** (t-test)</t>
-  </si>
-  <si>
     <t>0.000965 ***</t>
   </si>
   <si>
@@ -339,6 +326,17 @@
   </si>
   <si>
     <t>0.000437 ***</t>
+  </si>
+  <si>
+    <t>0.07273
+(Mann-Whitney)</t>
+  </si>
+  <si>
+    <t>0.1269
+(Mann-Whitney)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034118 * </t>
   </si>
 </sst>
 </file>
@@ -374,9 +372,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -400,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -415,6 +411,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -749,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -791,238 +793,224 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.75" customHeight="1">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.27932000000000001</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4">
-        <v>0.27932000000000001</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.40589999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.40589999999999998</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
